--- a/public/file/excel-recursos.xlsx
+++ b/public/file/excel-recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CCD\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C772137-8A22-483C-BCD5-CF73FC672F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD7EB4-25BE-4CCD-BCA5-86EE1F2AE51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F54CFF1E-05EF-4726-84CB-9FE858BE4247}"/>
   </bookViews>
@@ -641,6 +641,9 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -945,582 +948,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Cuadro 1995-2036 AIO Ancash'!$F$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Otros recursos pa inversión</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]Cuadro 1995-2036 AIO Ancash'!$G$30:$AU$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2036</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Cuadro 1995-2036 AIO Ancash'!$G$32:$AU$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D780-4819-82D6-9555A6BE42D6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Cuadro 1995-2036 AIO Ancash'!$F$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]Cuadro 1995-2036 AIO Ancash'!$G$30:$AU$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2036</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Cuadro 1995-2036 AIO Ancash'!$G$33:$AU$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>50.021362969999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.052803650000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.072873970000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.137432320000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.107601070000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50.153251900000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50.412798289999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51.05030412</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52.320459890000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52.725707640000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>124.52731176</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>413.58571376000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>354.70860345000006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>258.51540292999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>234.33795280999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>231.49907258999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>289.73775218000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>294.90105997000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>232.83124858999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>232.83124858999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>232.83124858999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>257.24610951</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>469.23918577000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>410.87893953000014</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>311.81711612999993</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>506.08645631000013</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>862.38787103510549</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>812.9618489006574</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>760.40152739524308</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>624.04725559688995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>619.92200754302451</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>659.26578423401293</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>641.12416814245728</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>601.44185817537596</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>562.26510287519113</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>603.85607104526559</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>593.0483498173171</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>626.77665368872829</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>561.25248843280451</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>513.30184695379853</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>418.75098057617129</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D780-4819-82D6-9555A6BE42D6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1532,6 +959,626 @@
         <c:smooth val="0"/>
         <c:axId val="131445888"/>
         <c:axId val="131674112"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Cuadro 1995-2036 AIO Ancash'!$F$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Otros recursos pa inversión</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Cuadro 1995-2036 AIO Ancash'!$G$30:$AU$30</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="41"/>
+                      <c:pt idx="0">
+                        <c:v>1996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2026</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2027</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2028</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2029</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2030</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2031</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2032</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2033</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2034</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2035</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2036</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Cuadro 1995-2036 AIO Ancash'!$G$32:$AU$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="41"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-D780-4819-82D6-9555A6BE42D6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Cuadro 1995-2036 AIO Ancash'!$F$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Cuadro 1995-2036 AIO Ancash'!$G$30:$AU$30</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="41"/>
+                      <c:pt idx="0">
+                        <c:v>1996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2026</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2027</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2028</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2029</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2030</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2031</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2032</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2033</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2034</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2035</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2036</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[1]Cuadro 1995-2036 AIO Ancash'!$G$33:$AU$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="41"/>
+                      <c:pt idx="0">
+                        <c:v>50.021362969999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20.052803650000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50.072873970000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>70.137432320000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50.107601070000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50.153251900000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50.412798289999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>51.05030412</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>52.320459890000002</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>52.725707640000003</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>124.52731176</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>413.58571376000003</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>354.70860345000006</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>258.51540292999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>234.33795280999996</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>231.49907258999997</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>289.73775218000003</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>294.90105997000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>232.83124858999997</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>232.83124858999997</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>232.83124858999997</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>257.24610951</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>469.23918577000001</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>410.87893953000014</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>311.81711612999993</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>506.08645631000013</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>862.38787103510549</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>812.9618489006574</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>760.40152739524308</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>624.04725559688995</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>619.92200754302451</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>659.26578423401293</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>641.12416814245728</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>601.44185817537596</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>562.26510287519113</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>603.85607104526559</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>593.0483498173171</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>626.77665368872829</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>561.25248843280451</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>513.30184695379853</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>418.75098057617129</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D780-4819-82D6-9555A6BE42D6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="131445888"/>
@@ -5661,7 +5708,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:J23"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6023,9 +6070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACE8D4F-F1AA-41CE-8CED-06DCE2A68308}">
   <dimension ref="B2:BK37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
